--- a/data/trans_dic/P1804-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1804-Habitat-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P1804-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1804-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +544,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,12 +666,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -627,6 +682,36 @@
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10,1%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7,78%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0; 1,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>0; 1,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>3,56; 15,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>2,0; 10,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0; 1,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0; 1,92</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 17,53</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4,67; 13,89</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,82</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,86</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5,7; 13,89</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 9,68</t>
         </is>
       </c>
     </row>
@@ -691,12 +806,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -707,6 +822,36 @@
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0; 0,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>2,32; 5,48</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 5,92</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,34</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,35</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4,02; 8,08</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 8,38</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,17</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3,65; 6,09</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,43; 6,35</t>
         </is>
       </c>
     </row>
@@ -771,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -787,6 +962,36 @@
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8,71%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8,63%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,21%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7,98%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 0,21</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,2</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 7,26</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5,35; 9,46</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,21</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>0; 0,2</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,13</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6,93; 10,61</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7,14; 10,68</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,11</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>0; 0,1</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,08</t>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 8,51</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6,77; 9,38</t>
         </is>
       </c>
     </row>
@@ -851,12 +1086,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -867,6 +1102,36 @@
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11,57%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4,93%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0; 0,3</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>0; 0,28</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3,82; 7,22</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 4,33</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>0; 0,28</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,26</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,13</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,27</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9,42; 13,94</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 6,48</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,14</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,14</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7,1; 10,15</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 5,02</t>
         </is>
       </c>
     </row>
@@ -931,12 +1226,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -947,6 +1242,36 @@
       <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12,06%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,66%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10,65%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9,57%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0; 0,19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>0; 0,21</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7,37; 11,01</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6,78; 10,4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>0; 0,19</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9,99; 14,25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9,29; 12,7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>0; 0,1</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,07</t>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9,27; 12,33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8,41; 10,74</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1027,6 +1382,36 @@
       <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6,99%</t>
         </is>
       </c>
     </row>
@@ -1049,22 +1434,52 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>5,44; 7,17</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5,11; 7,11</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,06</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8,83; 10,97</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>7,0; 8,91</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,03</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>7,43; 8,87</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 7,67</t>
         </is>
       </c>
     </row>
@@ -1078,14 +1493,14 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1804-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1804-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -666,12 +666,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>4,94%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 15,06</t>
+          <t>3,07; 6,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 10,82</t>
+          <t>2,11; 5,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,88; 17,53</t>
+          <t>5,05; 8,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,67; 13,89</t>
+          <t>4,59; 8,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,7; 13,89</t>
+          <t>4,48; 6,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,95; 9,68</t>
+          <t>3,78; 6,35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>7,19%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,48</t>
+          <t>4,34; 7,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,92</t>
+          <t>3,14; 8,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,08</t>
+          <t>6,93; 10,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,38</t>
+          <t>7,22; 10,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0; 0,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,09</t>
+          <t>6,15; 8,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,35</t>
+          <t>4,98; 8,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,26</t>
+          <t>3,82; 7,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,46</t>
+          <t>1,91; 4,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 10,61</t>
+          <t>9,42; 13,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,14; 10,68</t>
+          <t>2,17; 5,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,51</t>
+          <t>7,1; 10,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,77; 9,38</t>
+          <t>2,26; 4,55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>9,39%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,82; 7,22</t>
+          <t>7,37; 11,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,33</t>
+          <t>6,85; 10,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,42; 13,94</t>
+          <t>9,99; 14,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,48</t>
+          <t>8,24; 12,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 10,15</t>
+          <t>9,27; 12,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,02</t>
+          <t>8,06; 10,64</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>6,57%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,37; 11,01</t>
+          <t>5,44; 7,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,78; 10,4</t>
+          <t>4,43; 6,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,99; 14,25</t>
+          <t>8,83; 10,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,29; 12,7</t>
+          <t>6,17; 8,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,27; 12,33</t>
+          <t>7,43; 8,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,74</t>
+          <t>5,6; 7,27</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,3%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,92%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>9,93%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,95%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>8,15%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>6,99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,44; 7,17</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,11; 7,11</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>8,83; 10,97</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 8,91</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>7,43; 8,87</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>6,39; 7,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P1804-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1804-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,25</t>
+          <t>3,16; 6,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,9</t>
+          <t>2,21; 6,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,76</t>
+          <t>4,98; 8,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,18</t>
+          <t>4,76; 8,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,95</t>
+          <t>4,28; 6,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 6,35</t>
+          <t>3,76; 6,29</t>
         </is>
       </c>
     </row>
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,26</t>
+          <t>4,32; 7,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 8,39</t>
+          <t>3,18; 8,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 10,61</t>
+          <t>7,11; 10,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 10,7</t>
+          <t>7,06; 10,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,51</t>
+          <t>6,06; 8,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 8,71</t>
+          <t>4,79; 8,73</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 7,22</t>
+          <t>3,75; 7,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,22</t>
+          <t>1,81; 4,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,42; 13,94</t>
+          <t>9,21; 14,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,92</t>
+          <t>2,04; 6,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 10,15</t>
+          <t>7,15; 10,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,55</t>
+          <t>2,34; 4,67</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,37; 11,01</t>
+          <t>7,34; 10,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 10,58</t>
+          <t>6,73; 10,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1175,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,99; 14,25</t>
+          <t>9,86; 14,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,24; 12,25</t>
+          <t>8,11; 11,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 12,33</t>
+          <t>9,27; 12,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,06; 10,64</t>
+          <t>8,0; 10,64</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1295,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,44; 7,17</t>
+          <t>5,47; 7,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 6,58</t>
+          <t>4,26; 6,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1315,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,83; 10,97</t>
+          <t>8,89; 10,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,17; 8,56</t>
+          <t>6,21; 8,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1335,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,43; 8,87</t>
+          <t>7,54; 8,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 7,27</t>
+          <t>5,65; 7,27</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30408</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>22268</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>44330</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>42480</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>74738</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>64748</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2001</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21326; 43131</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14072; 39461</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1896</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2056</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33497; 59520</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>32171; 57081</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2030</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>57743; 92614</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>49255; 82442</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>58057</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>71399</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>90859</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>83205</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>148916</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>154604</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2059</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2086</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>44179; 74490</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>37911; 99485</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2046</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2106</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>74109; 110570</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>67680; 100463</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2054</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2098</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>125065; 173768</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>102944; 187874</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>40088</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19887</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>90834</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38588</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>130922</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>58475</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2108</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>28484; 53562</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12741; 29496</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1884</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2114</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>72321; 109955</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18947; 56350</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1955</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2113</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>110378; 157559</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>38182; 76386</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>85137</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>77281</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>125886</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>112455</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>211023</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>189736</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1818</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>68835; 103077</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>62346; 96722</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2012</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>102898; 149484</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>88749; 131043</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1910</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>183739; 241116</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>161714; 215143</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>213690</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>190834</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>351909</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>276729</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>565599</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>467563</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>185760; 244295</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>147506; 224128</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>315259; 385176</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>227113; 314421</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>523278; 610624</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>402222; 517418</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>